--- a/tests/performance/batch_100_files/xlsx/xlsx_017.xlsx
+++ b/tests/performance/batch_100_files/xlsx/xlsx_017.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -122,6 +122,170 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sales vs Expenses</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sales Data'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sales Data'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sales Data'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sales Data'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sales Data'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sales Data'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Amount ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,28 +588,100 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Expenses</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>